--- a/DATA/IsoData/HARVIsoData.xlsx
+++ b/DATA/IsoData/HARVIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">0b1d1c1b-cd73-4489-83ac-c56317884592</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a707104-fc35-4926-a6f3-53c233b43719</t>
   </si>
   <si>
     <t xml:space="preserve">HARV.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160505Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8cfa7806-a528-44c2-baea-8eaaeee54d9f</t>
+    <t xml:space="preserve">20210112T153605Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">471949f2-816f-4e27-8628-00eac0e9d9b0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20181023.1058</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000032738</t>
   </si>
   <si>
-    <t xml:space="preserve">65003428-4359-45d3-87d7-6ebd82ca5eee</t>
+    <t xml:space="preserve">230ceef8-908f-4e36-9cb6-d1787d26dee8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20181204.1000</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000032735</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160604Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9bf96830-fde4-4538-a06b-6a3386186d0e</t>
+    <t xml:space="preserve">20210112T153310Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90ffcb12-f38e-4c78-b8f0-5721bd7a9a26</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190408.1227</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000033002</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161813Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0114adb7-29d0-4703-a934-16e9746480c5</t>
+    <t xml:space="preserve">20210112T155434Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f36abcbd-9dd8-48c8-8624-1c0f43bdd572</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190424.1030</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000032998</t>
   </si>
   <si>
-    <t xml:space="preserve">e7c2f307-cc40-4503-84c1-ed5765f99525</t>
+    <t xml:space="preserve">f674ac25-00b6-44e4-9ff7-41c65cef7581</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190506.1103</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000066872</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161016Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfe86010-2fdf-409f-a59c-ec01bd44043c</t>
+    <t xml:space="preserve">20210112T155149Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209e223a-dd80-4246-af32-065be2603d25</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190605.1122</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000066865</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160850Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3fdd6efe-0048-443f-a2e7-4c10fa38c883</t>
+    <t xml:space="preserve">20210112T153833Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a14abd81-f271-425c-bd21-1b02e6c7a743</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190617.1352</t>
@@ -185,7 +191,7 @@
     <t xml:space="preserve">A00000066868</t>
   </si>
   <si>
-    <t xml:space="preserve">3eeb5faf-dca5-435f-8fca-053777e0406f</t>
+    <t xml:space="preserve">c409d18d-75a5-4284-817c-3efd5539a2d8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190701.1125</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000066867</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161345Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b85f6ae8-778c-4b31-9b25-819d76647cd3</t>
+    <t xml:space="preserve">20210112T154210Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7f5da2bc-8feb-48ae-9ebe-2865b99f7281</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190715.1142</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">A00000066897</t>
   </si>
   <si>
-    <t xml:space="preserve">0fb015d6-5304-4305-91c5-34dfb39ae94f</t>
+    <t xml:space="preserve">bad8ed91-51db-4b9c-8676-f7687a488c27</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190729.1046</t>
@@ -224,7 +230,7 @@
     <t xml:space="preserve">A00000066898</t>
   </si>
   <si>
-    <t xml:space="preserve">a878a674-67a3-40dd-8fdf-dc6f0fb7102b</t>
+    <t xml:space="preserve">3c8ab74e-2088-4d2f-83b2-9c49ef5d7729</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190812.1150</t>
@@ -236,10 +242,10 @@
     <t xml:space="preserve">A00000066903</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161205Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d44d42bb-c924-4b8c-933e-0d764a7e980b</t>
+    <t xml:space="preserve">20210112T154840Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343fbb11-d502-4fad-8a16-87e7ccf782b0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190820.1050</t>
@@ -251,7 +257,7 @@
     <t xml:space="preserve">A00000066896</t>
   </si>
   <si>
-    <t xml:space="preserve">fdf3d20e-095b-4d71-8aa1-bd48e0c3c0df</t>
+    <t xml:space="preserve">c2858728-3e79-4321-a326-f9baff7bf2c3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190912.1242</t>
@@ -263,10 +269,10 @@
     <t xml:space="preserve">A00000067457</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160527Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9f043299-fd8c-460c-ab68-3dcf05015d7d</t>
+    <t xml:space="preserve">20210112T154408Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88c249bb-0818-442a-ab41-b3c03357fe0c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20190923.1112</t>
@@ -278,7 +284,7 @@
     <t xml:space="preserve">A00000066900</t>
   </si>
   <si>
-    <t xml:space="preserve">10c02bf6-7096-4a8f-9245-39192c6b4c6e</t>
+    <t xml:space="preserve">2a635d4f-9b77-43b6-8531-8c376acbebe9</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20191007.1027</t>
@@ -290,10 +296,10 @@
     <t xml:space="preserve">A00000067443</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160707Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f46c0661-a631-4d1c-b7e6-8d73ab17d295</t>
+    <t xml:space="preserve">20210112T154512Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e30fc120-72b6-47ea-aa19-57f7e01d90b2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20191022.1024</t>
@@ -305,7 +311,7 @@
     <t xml:space="preserve">A00000067426</t>
   </si>
   <si>
-    <t xml:space="preserve">829a144d-13de-4b39-a030-e9b5b298547f</t>
+    <t xml:space="preserve">136be66d-84ed-422b-b2cb-fda9ea6083b3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20191028.1148</t>
@@ -317,7 +323,7 @@
     <t xml:space="preserve">A00000067444</t>
   </si>
   <si>
-    <t xml:space="preserve">e066b9fa-4e30-42fe-84b3-e90199afb8cc</t>
+    <t xml:space="preserve">5304a1bb-7520-4cad-9573-12f7675972f3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20191118.1019</t>
@@ -329,10 +335,10 @@
     <t xml:space="preserve">A00000067427</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160621Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff398dce-c13f-45a4-863a-04dd52d015bb</t>
+    <t xml:space="preserve">20210112T153820Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3603f462-ce68-416c-91b0-6981074f7ffd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20191210.1043</t>
@@ -344,10 +350,10 @@
     <t xml:space="preserve">A00000067432</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171755Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e7ff39e8-13a8-45ad-b670-ef99cef21e90</t>
+    <t xml:space="preserve">20210112T161051Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a780f139-9ead-4665-b6db-e7138a8453c2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20191219.1436</t>
@@ -359,7 +365,7 @@
     <t xml:space="preserve">A00000067451</t>
   </si>
   <si>
-    <t xml:space="preserve">c4c0797b-9163-4a88-a786-e9dc9a5ccec0</t>
+    <t xml:space="preserve">b4caa325-e544-4434-87a1-c0fed28f6f7e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20200113.0955</t>
@@ -371,10 +377,13 @@
     <t xml:space="preserve">A00000067449</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164228Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09018086-f42c-4464-bbd9-328b31f9ad0f</t>
+    <t xml:space="preserve">20210112T155504Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ae199b1-39df-4612-b6fd-c23182dac3d1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HARV.20200127.1033</t>
@@ -384,6 +393,120 @@
   </si>
   <si>
     <t xml:space="preserve">A00000067448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06a96490-096b-4406-916b-95e367633712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200212.0847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200212.0847.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154845Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448ee221-a0d2-4b66-8381-c7bde7e79af4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200225.0957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200225.0957.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15850254-cfe5-45a8-a281-b1dd816014e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200309.1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200309.1009.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T155558Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9a36bad-d3c9-4d2e-a46e-00ea68144f57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200722.1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200722.1008.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154717Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a50723c-6834-4212-898a-e68225fb129f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200818.0815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200818.0815.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154019Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23890496-76f1-4255-a053-d2125db24ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200831.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200831.1000.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9b79f01-c2b9-4c8c-abc3-2eece267f493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200915.1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20200915.1100.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154113Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932d9239-55b9-444a-b503-7d257b918fd9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20201005.1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.HARV.20201005.1040.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210201T154606Z</t>
   </si>
 </sst>
 </file>
@@ -721,7 +844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -775,23 +898,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43367.6444444444</v>
@@ -812,35 +938,38 @@
         <v>0.037</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43479.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43382.6493055556</v>
@@ -861,35 +990,38 @@
         <v>0.179</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43479.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43396.6291666667</v>
@@ -910,35 +1042,38 @@
         <v>0.161</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43482.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43549.6770833333</v>
@@ -959,35 +1094,38 @@
         <v>0.219</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43616.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43563.6944444444</v>
@@ -1008,35 +1146,38 @@
         <v>0.232</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43579.6069444444</v>
@@ -1057,35 +1198,38 @@
         <v>0.229</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43591.6375</v>
@@ -1106,35 +1250,38 @@
         <v>0.29</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43621.6576388889</v>
@@ -1155,35 +1302,38 @@
         <v>0.365</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43633.7444444444</v>
@@ -1204,35 +1354,38 @@
         <v>0.176</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43647.6465277778</v>
@@ -1253,35 +1406,38 @@
         <v>0.211</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43661.66875</v>
@@ -1302,35 +1458,38 @@
         <v>0.158</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43675.6666666667</v>
@@ -1351,35 +1510,38 @@
         <v>0.115</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43689.6666666667</v>
@@ -1400,35 +1562,38 @@
         <v>0.07</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43697.6256944444</v>
@@ -1449,35 +1614,38 @@
         <v>0.118</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43720.7</v>
@@ -1498,35 +1666,38 @@
         <v>0.116</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43731.6381944444</v>
@@ -1547,35 +1718,38 @@
         <v>0.181</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43745.6083333333</v>
@@ -1596,35 +1770,38 @@
         <v>0.122</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43760.6041666667</v>
@@ -1645,35 +1822,38 @@
         <v>0.046</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43766.6631944444</v>
@@ -1694,35 +1874,38 @@
         <v>0.102</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43787.6388888889</v>
@@ -1743,35 +1926,38 @@
         <v>0.093</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43809.6631944444</v>
@@ -1792,35 +1978,38 @@
         <v>0.083</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43818.8173611111</v>
@@ -1841,35 +2030,38 @@
         <v>0.071</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="R23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43843.6215277778</v>
@@ -1890,17 +2082,436 @@
         <v>0.072</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="R24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>43857.6541666667</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>43873.5743055556</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-11.04</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-82.615</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>131</v>
+      </c>
+      <c r="R25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>43873.5833333333</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>43886.6229166667</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-7.465</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-51.026</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>131</v>
+      </c>
+      <c r="R26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>43886.6270833333</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>43899.5895833333</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-9.426</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-64.279</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>44013.5729166667</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>44034.5888888889</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-4.948</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-31.875</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>44034.5909722222</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>44061.5104166667</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-4.793</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-25.233</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>150</v>
+      </c>
+      <c r="R29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>44061.5194444444</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>44074.5833333333</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-6.961</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-44.917</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>150</v>
+      </c>
+      <c r="R30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>44074.5833333333</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>44089.625</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-5.428</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-31.472</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>159</v>
+      </c>
+      <c r="R31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>44089.625</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>44109.6111111111</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-5.363</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-29.849</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>164</v>
+      </c>
+      <c r="R32" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
